--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/1_Adana_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/1_Adana_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE7B301-66D3-4F74-B3DD-A2812E3DA373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D03442B-513D-4A4B-98D1-85C7A6D66237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{4E1D6731-6BD4-4C76-BD94-C2B9C6E53ED9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{20068160-4CE3-4392-BC07-1F4BE3C21F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -26,6 +26,11 @@
     <sheet name="ŞUBAT" sheetId="125" r:id="rId11"/>
     <sheet name="OCAK" sheetId="124" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Criteria" localSheetId="4">#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">#REF!</definedName>
@@ -219,11 +224,22 @@
     <definedName name="Z_825BD838_6642_41DE_A2D4_C5B158B48D61_.wvu.PrintTitles" localSheetId="10" hidden="1">ŞUBAT!$B:$D,ŞUBAT!#REF!</definedName>
     <definedName name="Z_825BD838_6642_41DE_A2D4_C5B158B48D61_.wvu.PrintTitles" localSheetId="5" hidden="1">TEMMUZ!$B:$D,TEMMUZ!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <customWorkbookViews>
+    <customWorkbookView name="zkoksaldi - Kişisel Görünüm" guid="{01FD6900-BC48-42DD-8C5E-28776FF2193B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="837" activeSheetId="1"/>
     <customWorkbookView name="rkarali - Kişisel Görünüm" guid="{9D8AC7D8-AEF7-4837-91CE-18DF972B485D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1148" windowHeight="702" activeSheetId="1"/>
-    <customWorkbookView name="zkoksaldi - Kişisel Görünüm" guid="{01FD6900-BC48-42DD-8C5E-28776FF2193B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="837" activeSheetId="1"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -586,7 +602,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="182" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -820,7 +836,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,13 +845,13 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,19 +860,19 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,7 +881,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -874,7 +890,7 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,13 +903,13 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -907,13 +923,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{AAC3093B-3CC6-473F-A344-CAEC9E118655}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EA96E305-6CEB-43AB-B701-78AA48B33714}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{4286A7F0-BE91-4952-B341-C104DED1489B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{DBA97D0E-1418-41D6-9154-BB24CAC3E81F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AF460320-D9FA-45F3-A32B-317D7CAC06B1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{9A87CD25-DB48-4672-83A7-672FD676ED2F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7B23CBBD-0E44-43F7-902F-508B3E54F06C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A9265D6B-9D20-4F09-AF21-09633C88843E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{657E75FD-E48C-4EBB-9487-6EF6FFEF2D97}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4B3BF29C-5BCB-4F5C-B4AC-042713490920}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{178D0B7B-67C8-4DC2-AB9C-E76E329CA156}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4CCCB872-6F43-4F6D-8177-69EEE7FB9FD4}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{564E96A0-DB3A-42C1-BB56-88BACDE63286}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{00AE6BC0-79B2-40CD-ACCC-7743CB2AF9D8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -926,6 +942,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Det2-Kum"/>
+      <sheetName val="Det2-Ayiçi"/>
+      <sheetName val="T1.7"/>
+      <sheetName val="T1.8"/>
+      <sheetName val="  T32"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="T38"/>
+      <sheetName val="T39"/>
+      <sheetName val="T40"/>
+      <sheetName val="T41"/>
+      <sheetName val="T42"/>
+      <sheetName val="T43"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="T38"/>
+      <sheetName val="T39"/>
+      <sheetName val="T40"/>
+      <sheetName val="T41"/>
+      <sheetName val="T42"/>
+      <sheetName val="T43"/>
+      <sheetName val="2005 OTV MAKTU KARŞILAŞTIRMA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,11 +1299,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6895CA91-9F71-4F84-A1ED-91860F959D14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FE51E5-9AD4-49F4-B457-7D5FA0D532AA}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -2539,7 +2624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D606D7E3-2178-441E-83BF-F2E5C0A14957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B5826A-9719-4002-8A4F-EF11308E9B97}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -3859,7 +3944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D58D5CB-5371-4204-9013-7D439B56CFFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99466B24-F33F-4F4C-8988-93C080EE84F3}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -5181,7 +5266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507497AA-22E5-46A4-861C-3A18C6011E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4487A400-A894-4473-A3D3-5805B5F04F33}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -6495,7 +6580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119B186E-08EF-4384-8565-E16FA6E70124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E3D4E6-60AC-4EAA-A882-0AB3A0121D00}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7814,7 +7899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2066FFA3-9923-43F0-9C7D-39761BADCEFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76370E5C-0E14-4457-9BDB-310775E708F3}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -9138,7 +9223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0069260-A2EE-40D9-92EB-622A693DC993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F8B3B3-AB26-4620-B9B3-83772DAECBD8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -10464,7 +10549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC73E6C9-E4F5-4BEB-839D-6ADF7B4AF62F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8584F542-5351-4BC4-A4EF-6DD92AEF19BD}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -11788,7 +11873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400AE70-4B5D-4D76-ABD9-A8A67F71E821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADA793F-8D66-4731-ABA8-9B65E5F0C3F5}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -13112,7 +13197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBD0AD4-9C80-49AB-AAE1-E0FC74278240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9310D51-5EE9-447B-A8ED-82FDB91F8EC1}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -14432,7 +14517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEBCCAF-4C39-4F7F-80AE-34B9AAFAEBA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C5A6F3-F8AF-416A-8D08-1464A3326D45}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -15750,7 +15835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D345E269-3F84-405C-92D8-1014D20F10DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D85F62-E48F-4B5B-8700-5D488D8DE118}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
